--- a/results/tables/Median_F1_table.xlsx
+++ b/results/tables/Median_F1_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,22 +590,44 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>TNT</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="C11">
+        <v>0.7167832167832168</v>
+      </c>
+      <c r="D11">
+        <v>0.5774647887323944</v>
+      </c>
+      <c r="E11">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="F11">
+        <v>0.4361702127659575</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>0.4191919191919192</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0.679110234870564</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>0.5905866855811126</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>0.7459893048128342</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.4852216748768473</v>
       </c>
     </row>

--- a/results/tables/Median_F1_table.xlsx
+++ b/results/tables/Median_F1_table.xlsx
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.5418894830659536</v>
+        <v>0.54</v>
       </c>
       <c r="C2">
-        <v>0.8386391047036714</v>
+        <v>0.84</v>
       </c>
       <c r="D2">
-        <v>0.7007594936708861</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0.9398809523809524</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F2">
-        <v>0.5454545454545454</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.536541889483066</v>
+        <v>0.54</v>
       </c>
       <c r="C3">
-        <v>0.8007441203628265</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>0.6912364945978391</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E3">
-        <v>0.8814749780509219</v>
+        <v>0.88</v>
       </c>
       <c r="F3">
-        <v>0.5676578323637147</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.57174688057041</v>
+        <v>0.57</v>
       </c>
       <c r="C4">
-        <v>0.7760292445890824</v>
+        <v>0.78</v>
       </c>
       <c r="D4">
-        <v>0.7256119839240045</v>
+        <v>0.73</v>
       </c>
       <c r="E4">
-        <v>0.8040355677154583</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <v>0.6942215088282504</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5418894830659536</v>
+        <v>0.54</v>
       </c>
       <c r="C5">
-        <v>0.793799417394923</v>
+        <v>0.79</v>
       </c>
       <c r="D5">
-        <v>0.7007594936708861</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0.8630681818181818</v>
+        <v>0.86</v>
       </c>
       <c r="F5">
-        <v>0.5885935769656701</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.466540404040404</v>
+        <v>0.47</v>
       </c>
       <c r="C6">
-        <v>0.7770038821648777</v>
+        <v>0.78</v>
       </c>
       <c r="D6">
-        <v>0.6344178082191781</v>
+        <v>0.63</v>
       </c>
       <c r="E6">
-        <v>0.8978690228690229</v>
+        <v>0.9</v>
       </c>
       <c r="F6">
-        <v>0.502808988764045</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.6216577540106951</v>
+        <v>0.62</v>
       </c>
       <c r="C7">
-        <v>0.8460745409274821</v>
+        <v>0.85</v>
       </c>
       <c r="D7">
-        <v>0.7652372784448256</v>
+        <v>0.77</v>
       </c>
       <c r="E7">
-        <v>0.8987561734040608</v>
+        <v>0.9</v>
       </c>
       <c r="F7">
-        <v>0.6834487877288471</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.4399509803921569</v>
+        <v>0.44</v>
       </c>
       <c r="C8">
-        <v>0.638766032728881</v>
+        <v>0.64</v>
       </c>
       <c r="D8">
-        <v>0.5865634365634365</v>
+        <v>0.59</v>
       </c>
       <c r="E8">
-        <v>0.6822194199243379</v>
+        <v>0.68</v>
       </c>
       <c r="F8">
-        <v>0.521993670886076</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.5405844155844155</v>
+        <v>0.54</v>
       </c>
       <c r="C9">
-        <v>0.7257508307730893</v>
+        <v>0.73</v>
       </c>
       <c r="D9">
-        <v>0.6940275171982488</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E9">
-        <v>0.7569444444444444</v>
+        <v>0.76</v>
       </c>
       <c r="F9">
-        <v>0.6249515691592407</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.3235294117647058</v>
+        <v>0.32</v>
       </c>
       <c r="C10">
-        <v>0.6173355629877368</v>
+        <v>0.62</v>
       </c>
       <c r="D10">
-        <v>0.4848484848484849</v>
+        <v>0.48</v>
       </c>
       <c r="E10">
-        <v>0.6913377192982456</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F10">
-        <v>0.3728354978354979</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.4117647058823529</v>
+        <v>0.41</v>
       </c>
       <c r="C11">
-        <v>0.7167832167832168</v>
+        <v>0.72</v>
       </c>
       <c r="D11">
-        <v>0.5774647887323944</v>
+        <v>0.58</v>
       </c>
       <c r="E11">
-        <v>0.8541666666666666</v>
+        <v>0.85</v>
       </c>
       <c r="F11">
-        <v>0.4361702127659575</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12">
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.4191919191919192</v>
+        <v>0.42</v>
       </c>
       <c r="C12">
-        <v>0.679110234870564</v>
+        <v>0.68</v>
       </c>
       <c r="D12">
-        <v>0.5905866855811126</v>
+        <v>0.59</v>
       </c>
       <c r="E12">
-        <v>0.7459893048128342</v>
+        <v>0.75</v>
       </c>
       <c r="F12">
-        <v>0.4852216748768473</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/Median_F1_table.xlsx
+++ b/results/tables/Median_F1_table.xlsx
@@ -502,111 +502,111 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="C7">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D7">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F7">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="C8">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="D8">
-        <v>0.59</v>
+        <v>0.77</v>
       </c>
       <c r="E8">
+        <v>0.9</v>
+      </c>
+      <c r="F8">
         <v>0.68</v>
-      </c>
-      <c r="F8">
-        <v>0.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="C9">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="D9">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E9">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="F9">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="C10">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="D10">
-        <v>0.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E10">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F10">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="C11">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="D11">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="E11">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F11">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="12">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="C12">
         <v>0.68</v>

--- a/results/tables/Median_F1_table.xlsx
+++ b/results/tables/Median_F1_table.xlsx
@@ -436,155 +436,155 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="C4">
+        <v>0.73</v>
+      </c>
+      <c r="D4">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E4">
         <v>0.78</v>
       </c>
-      <c r="D4">
-        <v>0.73</v>
-      </c>
-      <c r="E4">
-        <v>0.8</v>
-      </c>
       <c r="F4">
-        <v>0.6899999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="C5">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E5">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F5">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="C6">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="D6">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="C7">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="E7">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F7">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="C8">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D8">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F8">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="C9">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="D9">
-        <v>0.59</v>
+        <v>0.77</v>
       </c>
       <c r="E9">
+        <v>0.9</v>
+      </c>
+      <c r="F9">
         <v>0.68</v>
-      </c>
-      <c r="F9">
-        <v>0.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="C10">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="D10">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E10">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="F10">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="11">

--- a/results/tables/Median_F1_table.xlsx
+++ b/results/tables/Median_F1_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,66 +568,88 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="C10">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="D10">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="E10">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="F10">
-        <v>0.52</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="C11">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="D11">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="E11">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="F11">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0.32</v>
+      </c>
+      <c r="C12">
+        <v>0.62</v>
+      </c>
+      <c r="D12">
+        <v>0.48</v>
+      </c>
+      <c r="E12">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>0.43</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0.68</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.59</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>0.75</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.49</v>
       </c>
     </row>

--- a/results/tables/Median_F1_table.xlsx
+++ b/results/tables/Median_F1_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,198 +458,242 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.57</v>
+        <v>0.02</v>
       </c>
       <c r="C5">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.54</v>
+        <v>0.17</v>
       </c>
       <c r="C6">
-        <v>0.79</v>
+        <v>0.28</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="E6">
-        <v>0.86</v>
+        <v>0.31</v>
       </c>
       <c r="F6">
-        <v>0.59</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="C7">
         <v>0.78</v>
       </c>
       <c r="D7">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="E7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="C8">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F8">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="C9">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="D9">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="E9">
         <v>0.9</v>
       </c>
       <c r="F9">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="C10">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="D10">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F10">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="C11">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="D11">
-        <v>0.59</v>
+        <v>0.77</v>
       </c>
       <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
         <v>0.68</v>
-      </c>
-      <c r="F11">
-        <v>0.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.32</v>
+        <v>0.61</v>
       </c>
       <c r="C12">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="D12">
-        <v>0.48</v>
+        <v>0.75</v>
       </c>
       <c r="E12">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F12">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="C13">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="D13">
         <v>0.59</v>
       </c>
       <c r="E13">
+        <v>0.68</v>
+      </c>
+      <c r="F13">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0.32</v>
+      </c>
+      <c r="C14">
+        <v>0.62</v>
+      </c>
+      <c r="D14">
+        <v>0.48</v>
+      </c>
+      <c r="E14">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.43</v>
+      </c>
+      <c r="C15">
+        <v>0.68</v>
+      </c>
+      <c r="D15">
+        <v>0.59</v>
+      </c>
+      <c r="E15">
         <v>0.75</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>0.49</v>
       </c>
     </row>

--- a/results/tables/Median_F1_table.xlsx
+++ b/results/tables/Median_F1_table.xlsx
@@ -458,7 +458,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B5">
@@ -480,23 +480,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="C6">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="E6">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F6">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">

--- a/results/tables/Median_F1_table.xlsx
+++ b/results/tables/Median_F1_table.xlsx
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">

--- a/results/tables/Median_F1_table.xlsx
+++ b/results/tables/Median_F1_table.xlsx
@@ -619,16 +619,16 @@
         <v>0.61</v>
       </c>
       <c r="C12">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="D12">
         <v>0.75</v>
       </c>
       <c r="E12">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="13">
